--- a/Function Points/FP-analysis.xlsx
+++ b/Function Points/FP-analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\easyFinance-SoftwareEngeneering\Function Points\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dominik\Studium\3_Semester\8_Software-Engineering\easyFinance-SoftwareEngeneering\Function Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D90DF-B391-45F0-B2A8-F3105A9B22CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E293B-F8AA-46ED-9783-82E62C31891C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44295" yWindow="-3990" windowWidth="20505" windowHeight="13080" xr2:uid="{1194A1D3-E7A9-4031-BFCB-20D8D30042CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1194A1D3-E7A9-4031-BFCB-20D8D30042CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="39">
   <si>
     <t>RET</t>
   </si>
@@ -112,13 +112,49 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>UC3: set username</t>
+  </si>
+  <si>
+    <t>UC4: set password</t>
+  </si>
+  <si>
+    <t>UC5: navigate with toolbar</t>
+  </si>
+  <si>
+    <t>UC6: show homepage</t>
+  </si>
+  <si>
+    <t>UC7: show transaction site</t>
+  </si>
+  <si>
+    <t>UC8: note transactions</t>
+  </si>
+  <si>
+    <t>UC9:  set alerts for balance limits</t>
+  </si>
+  <si>
+    <t>UC10: create categories</t>
+  </si>
+  <si>
+    <t>UC11: delete categories</t>
+  </si>
+  <si>
+    <t>UC12: change username</t>
+  </si>
+  <si>
+    <t>UC13: change password</t>
+  </si>
+  <si>
+    <t>UC14: set bank-balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +185,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -183,6 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -396,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{981C638C-680C-4863-A0BB-E5E59972646B}" name="Tabelle1" displayName="Tabelle1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:H18" xr:uid="{4355AA17-1766-43EA-B01A-08FFED3AAB4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{981C638C-680C-4863-A0BB-E5E59972646B}" name="Tabelle1" displayName="Tabelle1" ref="A1:H126" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H126" xr:uid="{4355AA17-1766-43EA-B01A-08FFED3AAB4D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9D91D2AE-4901-4E6B-A2D5-BEF6F1330FED}" name="UCs" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{2916F3FC-FA22-4E5F-A918-C6B7581EE657}" name="RET" dataDxfId="6"/>
@@ -709,26 +756,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FF8D67-116B-4868-B572-3C48E987EE6D}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -754,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -766,7 +813,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -792,7 +839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -818,7 +865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -838,7 +885,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -864,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -884,7 +931,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -894,7 +941,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -908,7 +955,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -918,7 +965,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -930,7 +977,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -956,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -982,7 +1029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1049,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1095,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1058,7 +1105,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1071,6 +1118,1974 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3">
+        <v>26</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3">
+        <v>20</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3">
+        <v>17</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="3">
+        <v>21</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="3">
+        <v>18</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="3">
+        <v>20</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="3">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Function Points/FP-analysis.xlsx
+++ b/Function Points/FP-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dominik\Studium\3_Semester\8_Software-Engineering\easyFinance-SoftwareEngeneering\Function Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E293B-F8AA-46ED-9783-82E62C31891C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EAC3F-737F-4366-8269-733B9EF6BF95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1194A1D3-E7A9-4031-BFCB-20D8D30042CD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="66">
   <si>
     <t>RET</t>
   </si>
@@ -148,6 +148,87 @@
   </si>
   <si>
     <t>UC14: set bank-balance</t>
+  </si>
+  <si>
+    <t>Settings Button click, click on username, insert username, click save</t>
+  </si>
+  <si>
+    <t>Settings Button click, click on password, insert old and new password, click save</t>
+  </si>
+  <si>
+    <t>select wished page</t>
+  </si>
+  <si>
+    <t>click homepage button</t>
+  </si>
+  <si>
+    <t>click transaction button</t>
+  </si>
+  <si>
+    <t>click on new transaction, insert amount/category/note, save</t>
+  </si>
+  <si>
+    <t>click settings button, select alert, insert value</t>
+  </si>
+  <si>
+    <t>click settings button, select new category, insert name</t>
+  </si>
+  <si>
+    <t>click settings button, select delete category, choose one, confirm</t>
+  </si>
+  <si>
+    <t>click settings button, select username, insert new username, confirm</t>
+  </si>
+  <si>
+    <t>Settings Button click, click on password,  insert old and new password, click save</t>
+  </si>
+  <si>
+    <t>Settings Button click, click on bank-balance, insert value, click save</t>
+  </si>
+  <si>
+    <t>new username</t>
+  </si>
+  <si>
+    <t>validation output, settings page</t>
+  </si>
+  <si>
+    <t>selected Page</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>transactions page, every transaction</t>
+  </si>
+  <si>
+    <t>transactions</t>
+  </si>
+  <si>
+    <t>validator output, back to transaction page</t>
+  </si>
+  <si>
+    <t>new category</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>validator output</t>
+  </si>
+  <si>
+    <t>validator output, new bankk balance</t>
+  </si>
+  <si>
+    <t>settings Table</t>
+  </si>
+  <si>
+    <t>transactions Table</t>
   </si>
 </sst>
 </file>
@@ -758,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FF8D67-116B-4868-B572-3C48E987EE6D}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +851,7 @@
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
@@ -1149,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1161,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>19</v>
@@ -1175,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1184,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>19</v>
@@ -1221,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1230,10 +1311,10 @@
         <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>19</v>
@@ -1313,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1325,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>19</v>
@@ -1339,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1348,10 +1429,10 @@
         <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>19</v>
@@ -1362,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1382,10 +1463,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1394,10 +1475,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>19</v>
@@ -1489,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>19</v>
@@ -1503,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1515,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>19</v>
@@ -1549,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>26</v>
@@ -1561,7 +1642,7 @@
         <v>24</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>19</v>
@@ -1653,7 +1734,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>19</v>
@@ -1679,7 +1760,7 @@
         <v>24</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>19</v>
@@ -1725,7 +1806,7 @@
         <v>24</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>19</v>
@@ -1805,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1817,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>19</v>
@@ -1831,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1843,7 +1924,7 @@
         <v>24</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>19</v>
@@ -1889,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>19</v>
@@ -1969,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -1981,7 +2062,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>19</v>
@@ -1995,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -2004,10 +2085,10 @@
         <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>19</v>
@@ -2041,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -2050,10 +2131,10 @@
         <v>26</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>19</v>
@@ -2145,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>19</v>
@@ -2159,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -2168,11 +2249,9 @@
         <v>9</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G76" s="9"/>
       <c r="H76" s="5" t="s">
         <v>19</v>
       </c>
@@ -2205,20 +2284,18 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G78" s="9"/>
       <c r="H78" s="5" t="s">
         <v>19</v>
       </c>
@@ -2297,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -2309,7 +2386,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>19</v>
@@ -2323,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -2332,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>19</v>
@@ -2369,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2378,10 +2455,10 @@
         <v>26</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>19</v>
@@ -2461,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -2473,7 +2550,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>19</v>
@@ -2487,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -2496,10 +2573,10 @@
         <v>9</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>19</v>
@@ -2533,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -2542,10 +2619,10 @@
         <v>26</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>19</v>
@@ -2625,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -2637,7 +2714,7 @@
         <v>20</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>19</v>
@@ -2651,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -2660,10 +2737,10 @@
         <v>9</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>19</v>
@@ -2697,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -2706,10 +2783,10 @@
         <v>26</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>19</v>
@@ -2789,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -2801,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>19</v>
@@ -2815,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -2824,10 +2901,10 @@
         <v>9</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>19</v>
@@ -2861,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -2870,10 +2947,10 @@
         <v>26</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>19</v>
@@ -2953,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -2965,7 +3042,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>19</v>
@@ -2979,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -2988,10 +3065,10 @@
         <v>9</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>19</v>
@@ -3025,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -3034,10 +3111,10 @@
         <v>26</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>19</v>

--- a/Function Points/FP-analysis.xlsx
+++ b/Function Points/FP-analysis.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dominik\Studium\3_Semester\8_Software-Engineering\easyFinance-SoftwareEngeneering\Function Points\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samuel\Studium\Git\easyFinance-SoftwareEngeneering\Function Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EAC3F-737F-4366-8269-733B9EF6BF95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1194A1D3-E7A9-4031-BFCB-20D8D30042CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,7 +330,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -349,7 +347,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -367,7 +364,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -385,7 +381,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -403,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -421,7 +415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -439,7 +432,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -457,7 +449,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -488,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -506,7 +496,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -524,17 +513,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{981C638C-680C-4863-A0BB-E5E59972646B}" name="Tabelle1" displayName="Tabelle1" ref="A1:H126" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:H126" xr:uid="{4355AA17-1766-43EA-B01A-08FFED3AAB4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H126" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H126"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9D91D2AE-4901-4E6B-A2D5-BEF6F1330FED}" name="UCs" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{2916F3FC-FA22-4E5F-A918-C6B7581EE657}" name="RET" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{33E13A93-BB3C-4104-A0D4-A3768AECFB9A}" name="DET" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{23B99CC6-551B-4851-9981-ABBF72966283}" name="FTR " dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5DFE62FF-BC55-491C-8CB3-66FAA068E8DC}" name="Resulting Complexity" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{ADFA87DE-9615-422D-89CE-D1C530B98A36}" name="RET (explanation)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B42492E6-A71B-4A3C-8F53-47EEB41C84EA}" name="DET (explanation)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{20607293-7699-48BF-843E-71F6847408B6}" name="FTR (explanation)" dataDxfId="0"/>
+    <tableColumn id="1" name="UCs" dataDxfId="7"/>
+    <tableColumn id="2" name="RET" dataDxfId="6"/>
+    <tableColumn id="3" name="DET" dataDxfId="5"/>
+    <tableColumn id="4" name="FTR " dataDxfId="4"/>
+    <tableColumn id="5" name="Resulting Complexity" dataDxfId="3"/>
+    <tableColumn id="7" name="RET (explanation)" dataDxfId="2"/>
+    <tableColumn id="8" name="DET (explanation)" dataDxfId="1"/>
+    <tableColumn id="9" name="FTR (explanation)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -836,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FF8D67-116B-4868-B572-3C48E987EE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="3">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
